--- a/data/trans_dic/P21D_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21D_1_R-Estudios-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.009589736036090877</v>
+        <v>0.009590321395584547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.005590995848320519</v>
+        <v>0.006844272183458702</v>
       </c>
     </row>
     <row r="7">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.004895195423405954</v>
+        <v>0.003838393017337824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.001929509348129677</v>
+        <v>0.001944983564921629</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0008574413903619667</v>
+        <v>0.0008574413903619666</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.0004460870580446369</v>
@@ -742,10 +742,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.003033931687659581</v>
+        <v>0.003144371606203864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.001366973321901615</v>
+        <v>0.001583822812069331</v>
       </c>
     </row>
     <row r="16">
@@ -905,7 +905,7 @@
         <v>3494</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3455</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="8">
@@ -970,10 +970,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4824</v>
+        <v>3783</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3753</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="12">
@@ -1098,10 +1098,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5134</v>
+        <v>5321</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4446</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="20">
